--- a/2SJ28/list.xlsx
+++ b/2SJ28/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t xml:space="preserve">Sony 2SJ28 VFET List</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">2SJ28_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_22</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="A25:C25"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,16 +664,30 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>6.266</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>5.348</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>

--- a/2SJ28/list.xlsx
+++ b/2SJ28/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve">Sony 2SJ28 VFET List</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">2SJ28_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_24</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,16 +700,30 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E30" s="15"/>
       <c r="F30" s="1"/>
       <c r="G30" s="17"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>

--- a/2SJ28/list.xlsx
+++ b/2SJ28/list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t xml:space="preserve">Sony 2SJ28 VFET List</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">2SJ28_2</t>
   </si>
   <si>
-    <t xml:space="preserve">available</t>
+    <t xml:space="preserve">temporarily reserved</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">2SJ28_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2SJ28_26</t>
   </si>
 </sst>
 </file>
@@ -309,15 +315,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="11.52"/>
   </cols>
   <sheetData>
@@ -730,17 +736,30 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>8.405</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="17"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
       <c r="G33" s="17"/>

--- a/2SJ28/list.xlsx
+++ b/2SJ28/list.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sony 2SJ28 List" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sony 2SJ28 List" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">2SJ28_2</t>
   </si>
   <si>
-    <t xml:space="preserve">temporarily reserved</t>
+    <t xml:space="preserve">available</t>
   </si>
   <si>
     <t xml:space="preserve">2SJ28_3</t>
@@ -308,6 +308,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -315,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
